--- a/sample_excel/Naninovel版演出表格.xlsx
+++ b/sample_excel/Naninovel版演出表格.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】git仓库\sample_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\视觉小说项目\【表格演出工具】dev\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1733F0-ED73-4481-8A59-453D1CBF2A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158A7333-6BAE-4C82-91B8-B173C76FA88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,33 +17,34 @@
     <sheet name="参数表" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="AmbienceList">OFFSET(参数表!$C$2,0,0,COUNTA(参数表!$C:$C)-1,1)</definedName>
-    <definedName name="AnimationList">OFFSET(参数表!$O$2,0,0,COUNTA(参数表!$O:$O)-1,1)</definedName>
-    <definedName name="BackgroundList">OFFSET(参数表!$D$2,0,0,COUNTA(参数表!$D:$D)-1,1)</definedName>
-    <definedName name="CameraList">OFFSET(参数表!$P$2,0,0,COUNTA(参数表!$P:$P)-1,1)</definedName>
-    <definedName name="CharacterList">OFFSET(参数表!$K$2,0,0,COUNTA(参数表!$K:$K)-1,1)</definedName>
+    <definedName name="AmbienceList">OFFSET(参数表!$A$2,0,0,COUNTA(参数表!$A:$A)-1,1)</definedName>
+    <definedName name="AnimationList">OFFSET(参数表!$B$2,0,0,COUNTA(参数表!$B:$B)-1,1)</definedName>
+    <definedName name="BackgroundList">OFFSET(参数表!$C$2,0,0,COUNTA(参数表!$C:$C)-1,1)</definedName>
+    <definedName name="CameraList">OFFSET(参数表!$D$2,0,0,COUNTA(参数表!$D:$D)-1,1)</definedName>
+    <definedName name="CharacterList">OFFSET(参数表!$E$2,0,0,COUNTA(参数表!$E:$E)-1,1)</definedName>
     <definedName name="DissolveList">OFFSET(参数表!$F$2,0,0,COUNTA(参数表!$F:$F)-1,1)</definedName>
-    <definedName name="EffectList">OFFSET(参数表!$R$2,0,0,COUNTA(参数表!$R:$R)-1,1)</definedName>
-    <definedName name="EventList">OFFSET(参数表!$U$2,0,0,COUNTA(参数表!$U:$U)-1,1)</definedName>
-    <definedName name="IdList">OFFSET(参数表!$E$2,0,0,COUNTA(参数表!$E:$E)-1,1)</definedName>
-    <definedName name="MovieList">OFFSET(参数表!$S$2,0,0,COUNTA(参数表!$S:$S)-1,1)</definedName>
-    <definedName name="MusicList">OFFSET(参数表!$A$2,0,0,COUNTA(参数表!$A:$A)-1,1)</definedName>
-    <definedName name="PackedEffectList">OFFSET(参数表!$Q$2,0,0,COUNTA(参数表!$Q:$Q)-1,1)</definedName>
-    <definedName name="PoseList">OFFSET(参数表!$I$2,0,0,COUNTA(参数表!$I:$I)-1,1)</definedName>
-    <definedName name="PrinterList">OFFSET(参数表!$M$2,0,0,COUNTA(参数表!$M:$M)-1,1)</definedName>
-    <definedName name="SoundList">OFFSET(参数表!$B$2,0,0,COUNTA(参数表!$B:$B)-1,1)</definedName>
+    <definedName name="EffectList">OFFSET(参数表!$G$2,0,0,COUNTA(参数表!$G:$G)-1,1)</definedName>
+    <definedName name="EventList">OFFSET(参数表!$H$2,0,0,COUNTA(参数表!$H:$H)-1,1)</definedName>
+    <definedName name="IdList">OFFSET(参数表!$I$2,0,0,COUNTA(参数表!$I:$I)-1,1)</definedName>
+    <definedName name="MovieList">OFFSET(参数表!$J$2,0,0,COUNTA(参数表!$J:$J)-1,1)</definedName>
+    <definedName name="MusicList">OFFSET(参数表!$K$2,0,0,COUNTA(参数表!$K:$K)-1,1)</definedName>
+    <definedName name="NameList">OFFSET(参数表!$L$2,0,0,COUNTA(参数表!$L:$L)-1,1)</definedName>
+    <definedName name="PackedEffectList">OFFSET(参数表!$M$2,0,0,COUNTA(参数表!$M:$M)-1,1)</definedName>
+    <definedName name="PoseList">OFFSET(参数表!$N$2,0,0,COUNTA(参数表!$N:$N)-1,1)</definedName>
+    <definedName name="PrinterList">OFFSET(参数表!$O$2,0,0,COUNTA(参数表!$O:$O)-1,1)</definedName>
+    <definedName name="SoundList">OFFSET(参数表!$P$2,0,0,COUNTA(参数表!$P:$P)-1,1)</definedName>
     <definedName name="SpeakerList">OFFSET(参数表!$N$2,0,0,COUNTA(参数表!$N:$N)-1,1)</definedName>
-    <definedName name="TintList">OFFSET(参数表!$J$2,0,0,COUNTA(参数表!$J:$J)-1,1)</definedName>
-    <definedName name="TransitionList">OFFSET(参数表!$L$2,0,0,COUNTA(参数表!$L:$L)-1,1)</definedName>
-    <definedName name="TransitionTypeList">OFFSET(参数表!$T$2,0,0,COUNTA(参数表!$T:$T)-1,1)</definedName>
-    <definedName name="VarientList">OFFSET(参数表!$H$2,0,0,COUNTA(参数表!$H:$H)-1,1)</definedName>
+    <definedName name="TintList">OFFSET(参数表!$Q$2,0,0,COUNTA(参数表!$Q:$Q)-1,1)</definedName>
+    <definedName name="TransitionList">OFFSET(参数表!$R$2,0,0,COUNTA(参数表!$R:$R)-1,1)</definedName>
+    <definedName name="TransitionTypeList">OFFSET(参数表!$S$2,0,0,COUNTA(参数表!$S:$S)-1,1)</definedName>
+    <definedName name="VarientList">OFFSET(参数表!$T$2,0,0,COUNTA(参数表!$T:$T)-1,1)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="131">
   <si>
     <t>Index</t>
   </si>
@@ -54,7 +55,7 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Speaker</t>
+    <t>Name</t>
   </si>
   <si>
     <t>Text</t>
@@ -171,9 +172,6 @@
     <t>TransChar</t>
   </si>
   <si>
-    <t>Char</t>
-  </si>
-  <si>
     <t>Varient</t>
   </si>
   <si>
@@ -285,24 +283,24 @@
     <t>镜头</t>
   </si>
   <si>
+    <t>转场</t>
+  </si>
+  <si>
+    <t>背景</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>转场效果</t>
+  </si>
+  <si>
     <t>↑转场背景效果，转场后镜头重置</t>
   </si>
   <si>
     <t>转场后</t>
   </si>
   <si>
-    <t>转场</t>
-  </si>
-  <si>
-    <t>背景</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>转场效果</t>
-  </si>
-  <si>
     <t>↑隐藏背景，转场角色立绘效果，角色动画</t>
   </si>
   <si>
@@ -384,61 +382,61 @@
     <t>END</t>
   </si>
   <si>
+    <t>Animation</t>
+  </si>
+  <si>
     <t>Background</t>
   </si>
   <si>
+    <t>Character</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
+    <t>TransitionType</t>
+  </si>
+  <si>
+    <t>模糊</t>
+  </si>
+  <si>
+    <t>视频</t>
+  </si>
+  <si>
+    <t>重置</t>
+  </si>
+  <si>
+    <t>大震动</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>恢复</t>
+  </si>
+  <si>
+    <t>取消模糊</t>
+  </si>
+  <si>
+    <t>左</t>
+  </si>
+  <si>
+    <t>显示和隐藏</t>
+  </si>
+  <si>
+    <t>夜晚</t>
+  </si>
+  <si>
+    <t>切镜头</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>局部转场</t>
+  </si>
+  <si>
     <t>Character</t>
-  </si>
-  <si>
-    <t>Animation</t>
-  </si>
-  <si>
-    <t>TransitionType</t>
-  </si>
-  <si>
-    <t>模糊</t>
-  </si>
-  <si>
-    <t>视频</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>恢复</t>
-  </si>
-  <si>
-    <t>重置</t>
-  </si>
-  <si>
-    <t>大震动</t>
-  </si>
-  <si>
-    <t>左</t>
-  </si>
-  <si>
-    <t>夜晚</t>
-  </si>
-  <si>
-    <t>显示和隐藏</t>
-  </si>
-  <si>
-    <t>取消模糊</t>
-  </si>
-  <si>
-    <t>右</t>
-  </si>
-  <si>
-    <t>局部转场</t>
-  </si>
-  <si>
-    <t>切镜头</t>
-  </si>
-  <si>
-    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,12 +549,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,16 +723,13 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -755,14 +744,7 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1108,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI566"/>
+  <dimension ref="A1:BI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
@@ -1122,12 +1104,12 @@
     <col min="5" max="5" width="60.58203125" style="1" customWidth="1"/>
     <col min="6" max="8" width="8.6640625" style="5" customWidth="1"/>
     <col min="9" max="10" width="8.58203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="12.58203125" style="16" customWidth="1"/>
-    <col min="13" max="14" width="8.58203125" style="16" customWidth="1"/>
-    <col min="15" max="16" width="10.58203125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="8.58203125" style="16" customWidth="1"/>
-    <col min="18" max="19" width="8.58203125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12.58203125" style="15" customWidth="1"/>
+    <col min="13" max="14" width="8.58203125" style="15" customWidth="1"/>
+    <col min="15" max="16" width="10.58203125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="8.58203125" style="15" customWidth="1"/>
+    <col min="18" max="19" width="8.58203125" style="16" customWidth="1"/>
     <col min="20" max="23" width="8.58203125" style="7" customWidth="1"/>
     <col min="24" max="25" width="10.58203125" style="7" customWidth="1"/>
     <col min="26" max="26" width="8.6640625" style="8" customWidth="1"/>
@@ -1141,13 +1123,13 @@
     <col min="43" max="51" width="8.6640625" style="3" customWidth="1"/>
     <col min="52" max="52" width="8.6640625" style="12" customWidth="1"/>
     <col min="53" max="54" width="16.58203125" style="12" customWidth="1"/>
-    <col min="55" max="55" width="12.58203125" style="14" customWidth="1"/>
-    <col min="56" max="56" width="20.58203125" style="14" customWidth="1"/>
-    <col min="57" max="58" width="16.58203125" style="14" customWidth="1"/>
-    <col min="59" max="59" width="10.58203125" style="15" customWidth="1"/>
+    <col min="55" max="55" width="12.58203125" style="13" customWidth="1"/>
+    <col min="56" max="56" width="20.58203125" style="13" customWidth="1"/>
+    <col min="57" max="58" width="16.58203125" style="13" customWidth="1"/>
+    <col min="59" max="59" width="10.58203125" style="14" customWidth="1"/>
     <col min="60" max="61" width="10.58203125" style="4" customWidth="1"/>
-    <col min="62" max="87" width="8.6640625" style="1" customWidth="1"/>
-    <col min="88" max="16384" width="8.6640625" style="1"/>
+    <col min="62" max="89" width="8.6640625" style="1" customWidth="1"/>
+    <col min="90" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.3">
@@ -1161,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1181,31 +1163,31 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="16" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="7" t="s">
@@ -1278,61 +1260,61 @@
         <v>41</v>
       </c>
       <c r="AQ1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BB1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BC1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="14" t="s">
+      <c r="BD1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="14" t="s">
+      <c r="BE1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="14" t="s">
+      <c r="BF1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="14" t="s">
+      <c r="BG1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BH1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.3">
@@ -1340,13 +1322,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.3">
@@ -1354,10 +1336,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.3">
@@ -1365,13 +1347,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.3">
@@ -1379,10 +1361,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
@@ -1393,10 +1375,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" s="6">
         <v>0.5</v>
@@ -1407,16 +1389,16 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
@@ -1427,24 +1409,24 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="N8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <v>2</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="15">
         <v>1</v>
       </c>
-      <c r="R8" s="17" t="b">
+      <c r="R8" s="16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1453,10 +1435,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T9" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="U9" s="7">
         <v>0.5</v>
@@ -1475,35 +1457,14 @@
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="Z10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="AC10" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="AD10" s="2">
         <v>1</v>
@@ -1515,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AI10" s="2">
         <v>90</v>
@@ -1526,231 +1487,227 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA11" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB11" s="12" t="b">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP12" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="AQ12" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB12" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BC13" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BC14" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="BC14" s="13" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE15" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF15" s="14">
-        <v>1</v>
-      </c>
-      <c r="BH15" s="4" t="s">
-        <v>87</v>
+        <v>96</v>
+      </c>
+      <c r="BC15" s="13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BG16" s="15">
-        <v>3</v>
+        <v>99</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC16" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE16" s="13">
+        <v>1</v>
+      </c>
+      <c r="BF16" s="13">
+        <v>1</v>
       </c>
       <c r="BH16" s="4" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG17" s="14">
+        <v>3</v>
       </c>
       <c r="BH17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BI17" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI18" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="18" t="s">
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="193" spans="54:54" x14ac:dyDescent="0.3">
-      <c r="BB193" s="13"/>
-    </row>
-    <row r="212" spans="54:54" x14ac:dyDescent="0.3">
-      <c r="BB212" s="13"/>
-    </row>
-    <row r="351" spans="54:54" x14ac:dyDescent="0.3">
-      <c r="BB351" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="54:54" x14ac:dyDescent="0.3">
-      <c r="BB392" s="13"/>
-    </row>
-    <row r="532" spans="54:54" x14ac:dyDescent="0.3">
-      <c r="BB532" s="13"/>
-    </row>
-    <row r="566" spans="54:54" x14ac:dyDescent="0.3">
-      <c r="BB566" s="12" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AM2:AM6 AO2:AO6 AM8:AM108 AO8:AO108 AM110:AM117 AO110:AO117 AM119:AM126 AO119:AO126 AM128:AM158 AO128:AO158 AM160:AM172 AO160:AO172 AM174:AM202 AO174:AO202 AM204:AM236 AO204:AO236 AM241:AM290 AO241:AO290 AM295:AM346 AO295:AO346 AM350:AM382 AO350:AO382 AM386:AM448 AO386:AO448 AM450:AM1049 AO450:AO1049">
-    <cfRule type="expression" dxfId="5" priority="3">
+  <conditionalFormatting sqref="AM2:AM6 AO2:AO6 AM8:AM10 AO8:AO10 AM12:AM20 AO12:AO20 AM22:AM502 AO22:AO502">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND(IF(AM1=AM2,TRUE,FALSE),NOT(AM2=""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM7 AO7 AM292:AM293 AO292:AO293 AM347:AM348 AO347:AO348">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="AM7 AO7">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(IF(AM4=AM7,TRUE,FALSE),NOT(AM7=""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM13 AO13 AM109 AO109 AM118 AO118 AM127 AO127 AM159 AO159 AM173 AO173 AM203 AO203 AM237 AO237 AM240 AO240 AM291 AO291 AM294 AO294 AM349 AO349 AM383:AM385 AO383:AO385">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>AND(IF(AM11=AM13,TRUE,FALSE),NOT(AM13=""))</formula>
+  <conditionalFormatting sqref="AM11 AO11 AM14 AO14">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND(IF(AM9=AM11,TRUE,FALSE),NOT(AM11=""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM15 AO15">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND(IF(AM13=AM15,TRUE,FALSE),NOT(AM15=""))</formula>
+  <conditionalFormatting sqref="AM16 AO16">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(IF(AM14=AM16,TRUE,FALSE),NOT(AM16=""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM238:AM239 AO238:AO239">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(IF(AM232=AM238,TRUE,FALSE),NOT(AM238=""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM449 AO449">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND(IF(AM445=AM449,TRUE,FALSE),NOT(AM449=""))</formula>
+  <conditionalFormatting sqref="AM21 AO21">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>AND(IF(#REF!=AM21,TRUE,FALSE),NOT(AM21=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z1048576 AP2:AP1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP1048576 Z2:Z1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>TransitionTypeList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576 X2:X1048576 BB2:BB1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB1048576 X2:X1048576 R2:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>CameraList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576 AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576 N2:N1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>IdList</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
@@ -1759,7 +1716,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>AnimationList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH1048576 BD2:BD1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2:BD1048576 AH2:AH1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>DissolveList</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC2:BC1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
@@ -1780,13 +1737,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>BackgroundList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AG1048576 AV2:AV1048576 AX2:AX1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX1048576 AV2:AV1048576 AF2:AG1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>MovieList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ1048576 AZ2:AZ1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ1048576 AQ2:AQ1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>CharacterList</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR1048576" xr:uid="{00000000-0002-0000-0000-000010000000}">
@@ -1820,22 +1777,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.58203125" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="16.58203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.58203125" style="1"/>
+    <col min="1" max="16" width="16.58203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="16.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>114</v>
@@ -1844,222 +1801,219 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>27</v>
-      </c>
+      <c r="T1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="18"/>
     </row>
     <row r="2" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="O2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="19" t="s">
+      <c r="R2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>87</v>
-      </c>
+      <c r="T2" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" s="18"/>
     </row>
     <row r="3" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="R3" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="N4" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="O4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" s="19" t="s">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="19" t="s">
+      <c r="R4" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="R5" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="6" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L6" s="20"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="20"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="20"/>
+      <c r="L8" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
